--- a/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>30.94767930714638</v>
+      </c>
+      <c r="C2">
+        <v>18.02839789823626</v>
+      </c>
+      <c r="D2">
+        <v>7.176711939644266</v>
+      </c>
+      <c r="E2">
+        <v>5.355084699885435</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.071862182531138</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>7.872637197083721</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>14.43214361949401</v>
+      </c>
+      <c r="O2">
+        <v>36.25385657205117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>28.89956331056342</v>
+      </c>
+      <c r="C3">
+        <v>16.69629616462835</v>
+      </c>
+      <c r="D3">
+        <v>6.646849093659972</v>
+      </c>
+      <c r="E3">
+        <v>5.379734093140737</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.087326099197703</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>7.586701784913259</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>14.5872726861725</v>
+      </c>
+      <c r="O3">
+        <v>34.60319400902947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>27.60510224433635</v>
+      </c>
+      <c r="C4">
+        <v>15.84258274822992</v>
+      </c>
+      <c r="D4">
+        <v>6.307281307553997</v>
+      </c>
+      <c r="E4">
+        <v>5.396206683791796</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.096952316892749</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>7.414014274585747</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>14.68869247419305</v>
+      </c>
+      <c r="O4">
+        <v>33.60020848067472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>27.06835926388615</v>
+      </c>
+      <c r="C5">
+        <v>15.48538339801154</v>
+      </c>
+      <c r="D5">
+        <v>6.183740170634824</v>
+      </c>
+      <c r="E5">
+        <v>5.403244393661753</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.100914363967519</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>7.344388601101103</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>14.73148116300047</v>
+      </c>
+      <c r="O5">
+        <v>33.19421131294489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>26.97867942839361</v>
+      </c>
+      <c r="C6">
+        <v>15.42550046652199</v>
+      </c>
+      <c r="D6">
+        <v>6.163773651269723</v>
+      </c>
+      <c r="E6">
+        <v>5.404432328349771</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.101574801983092</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>7.33287323553031</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>14.73867189153262</v>
+      </c>
+      <c r="O6">
+        <v>33.12696469586368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>27.59790079306343</v>
+      </c>
+      <c r="C7">
+        <v>15.83780348448932</v>
+      </c>
+      <c r="D7">
+        <v>6.305380387865163</v>
+      </c>
+      <c r="E7">
+        <v>5.396300294708105</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.097005583589929</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>7.413072220247637</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>14.68926374067258</v>
+      </c>
+      <c r="O7">
+        <v>33.59472184106814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>30.24913019747342</v>
+      </c>
+      <c r="C8">
+        <v>17.57632711864036</v>
+      </c>
+      <c r="D8">
+        <v>6.996894739601085</v>
+      </c>
+      <c r="E8">
+        <v>5.363298722796058</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.077170886158541</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>7.773458469226337</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>14.48429160711945</v>
+      </c>
+      <c r="O8">
+        <v>35.68253868168584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>35.41415599914898</v>
+      </c>
+      <c r="C9">
+        <v>20.71702572497863</v>
+      </c>
+      <c r="D9">
+        <v>8.245997403845823</v>
+      </c>
+      <c r="E9">
+        <v>5.309822764456666</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.038991189120956</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>8.502893298881336</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>14.1362994830259</v>
+      </c>
+      <c r="O9">
+        <v>39.86313583852482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>39.0677789125026</v>
+      </c>
+      <c r="C10">
+        <v>22.88597304884093</v>
+      </c>
+      <c r="D10">
+        <v>9.108134798790966</v>
+      </c>
+      <c r="E10">
+        <v>5.278483547959273</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.010839836679007</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>9.054195738159631</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>13.92213035963788</v>
+      </c>
+      <c r="O10">
+        <v>43.00297300967569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>40.69358469852295</v>
+      </c>
+      <c r="C11">
+        <v>23.84954497661957</v>
+      </c>
+      <c r="D11">
+        <v>9.490908221444714</v>
+      </c>
+      <c r="E11">
+        <v>5.266285333545609</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.997860820539232</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>9.309273209451211</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>13.83623827401426</v>
+      </c>
+      <c r="O11">
+        <v>44.45364703949072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>41.30506427975175</v>
+      </c>
+      <c r="C12">
+        <v>24.21182083454343</v>
+      </c>
+      <c r="D12">
+        <v>9.63477063675256</v>
+      </c>
+      <c r="E12">
+        <v>5.26199921228198</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.992905461310867</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>9.406610315987633</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>13.80564435027674</v>
+      </c>
+      <c r="O12">
+        <v>45.00715195762707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>41.1735379630214</v>
+      </c>
+      <c r="C13">
+        <v>24.1339013177254</v>
+      </c>
+      <c r="D13">
+        <v>9.603830721407263</v>
+      </c>
+      <c r="E13">
+        <v>5.262906796225248</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.99397477152388</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>9.385611319532762</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>13.81214238812508</v>
+      </c>
+      <c r="O13">
+        <v>44.88774078771934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>40.74396844216392</v>
+      </c>
+      <c r="C14">
+        <v>23.87939729672778</v>
+      </c>
+      <c r="D14">
+        <v>9.502763897551267</v>
+      </c>
+      <c r="E14">
+        <v>5.265925789468532</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.997454052775631</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>9.317265351265444</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>13.83368080150964</v>
+      </c>
+      <c r="O14">
+        <v>44.49909410553177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>40.48033538587568</v>
+      </c>
+      <c r="C15">
+        <v>23.72319020887629</v>
+      </c>
+      <c r="D15">
+        <v>9.440725044973794</v>
+      </c>
+      <c r="E15">
+        <v>5.267819650556698</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.999579421173077</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>9.27550312365886</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>13.84713437817345</v>
+      </c>
+      <c r="O15">
+        <v>44.26161314795917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>38.96088250339839</v>
+      </c>
+      <c r="C16">
+        <v>22.82259445761389</v>
+      </c>
+      <c r="D16">
+        <v>9.082951965441476</v>
+      </c>
+      <c r="E16">
+        <v>5.279325110195604</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.011683302553652</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>9.037621966438435</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>13.92799770870033</v>
+      </c>
+      <c r="O16">
+        <v>42.90869200890976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>38.02012917598413</v>
+      </c>
+      <c r="C17">
+        <v>22.26465837297088</v>
+      </c>
+      <c r="D17">
+        <v>8.861233403107441</v>
+      </c>
+      <c r="E17">
+        <v>5.286934099379035</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.019054205949682</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>8.892864103259853</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>13.98073521592389</v>
+      </c>
+      <c r="O17">
+        <v>42.08502330221214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>37.47554686949491</v>
+      </c>
+      <c r="C18">
+        <v>21.94152479506863</v>
+      </c>
+      <c r="D18">
+        <v>8.732801632393791</v>
+      </c>
+      <c r="E18">
+        <v>5.291501620284459</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.023278586335395</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>8.809996458072543</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>14.01213468171198</v>
+      </c>
+      <c r="O18">
+        <v>41.61330011519692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>37.29053412042179</v>
+      </c>
+      <c r="C19">
+        <v>21.83171591195522</v>
+      </c>
+      <c r="D19">
+        <v>8.689154010633619</v>
+      </c>
+      <c r="E19">
+        <v>5.293079928684187</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.024706710506608</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>8.782003300414805</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>14.0229417506108</v>
+      </c>
+      <c r="O19">
+        <v>41.45390727955265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>38.12062798851086</v>
+      </c>
+      <c r="C20">
+        <v>22.32427702179863</v>
+      </c>
+      <c r="D20">
+        <v>8.884927614574968</v>
+      </c>
+      <c r="E20">
+        <v>5.286104098711295</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.01827123389425</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>8.908232349224704</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>13.97500907559723</v>
+      </c>
+      <c r="O20">
+        <v>42.17248831934668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>40.87024737314282</v>
+      </c>
+      <c r="C21">
+        <v>23.95421567418587</v>
+      </c>
+      <c r="D21">
+        <v>9.532476731052911</v>
+      </c>
+      <c r="E21">
+        <v>5.265029654667602</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.996433343183765</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>9.337318733493928</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>13.82729954720779</v>
+      </c>
+      <c r="O21">
+        <v>44.61312677331274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>42.64359562414224</v>
+      </c>
+      <c r="C22">
+        <v>25.00471731115919</v>
+      </c>
+      <c r="D22">
+        <v>9.94952587211079</v>
+      </c>
+      <c r="E22">
+        <v>5.25322248945538</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.981915236230784</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>9.622190729911431</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>13.74219513985342</v>
+      </c>
+      <c r="O22">
+        <v>46.23320067416283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>41.69888638490443</v>
+      </c>
+      <c r="C23">
+        <v>24.44511972761396</v>
+      </c>
+      <c r="D23">
+        <v>9.727399327574263</v>
+      </c>
+      <c r="E23">
+        <v>5.259329359859093</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.989692376113489</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>9.469686936639722</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>13.78646400860101</v>
+      </c>
+      <c r="O23">
+        <v>45.3658477167567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>38.07520417054031</v>
+      </c>
+      <c r="C24">
+        <v>22.29733086048407</v>
+      </c>
+      <c r="D24">
+        <v>8.874218480097749</v>
+      </c>
+      <c r="E24">
+        <v>5.286478743494599</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.018625255695001</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>8.901283266679121</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>13.97759451956037</v>
+      </c>
+      <c r="O24">
+        <v>42.13293979954172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>34.03082975307641</v>
+      </c>
+      <c r="C25">
+        <v>19.89376242599665</v>
+      </c>
+      <c r="D25">
+        <v>7.918623887122807</v>
+      </c>
+      <c r="E25">
+        <v>5.322987136895872</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.049293347441791</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>8.303063794989916</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>14.22387896362352</v>
+      </c>
+      <c r="O25">
+        <v>38.72194323512508</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.94767930714638</v>
+        <v>34.22087755989647</v>
       </c>
       <c r="C2">
-        <v>18.02839789823626</v>
+        <v>34.51433936270701</v>
       </c>
       <c r="D2">
-        <v>7.176711939644266</v>
+        <v>7.49719744178093</v>
       </c>
       <c r="E2">
-        <v>5.355084699885435</v>
+        <v>31.09857397363439</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.071862182531138</v>
+        <v>1.986673986820882</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30.74695112580357</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.872637197083721</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.43214361949401</v>
+        <v>13.15724304973101</v>
       </c>
       <c r="O2">
-        <v>36.25385657205117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.89956331056342</v>
+        <v>31.53544857139841</v>
       </c>
       <c r="C3">
-        <v>16.69629616462835</v>
+        <v>31.76426867928877</v>
       </c>
       <c r="D3">
-        <v>6.646849093659972</v>
+        <v>6.915546011972437</v>
       </c>
       <c r="E3">
-        <v>5.379734093140737</v>
+        <v>28.54931761965648</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.087326099197703</v>
+        <v>2.009013030237193</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28.99390384320801</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.586701784913259</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.5872726861725</v>
+        <v>13.23753595810318</v>
       </c>
       <c r="O3">
-        <v>34.60319400902947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.60510224433635</v>
+        <v>29.8361487457603</v>
       </c>
       <c r="C4">
-        <v>15.84258274822992</v>
+        <v>30.0306114597774</v>
       </c>
       <c r="D4">
-        <v>6.307281307553997</v>
+        <v>6.546970596425061</v>
       </c>
       <c r="E4">
-        <v>5.396206683791796</v>
+        <v>26.95177280108553</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.096952316892749</v>
+        <v>2.022643195440325</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.93402179854188</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.414014274585747</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.68869247419305</v>
+        <v>13.29668285645582</v>
       </c>
       <c r="O4">
-        <v>33.60020848067472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.06835926388615</v>
+        <v>29.12969539939867</v>
       </c>
       <c r="C5">
-        <v>15.48538339801154</v>
+        <v>29.3113498127192</v>
       </c>
       <c r="D5">
-        <v>6.183740170634824</v>
+        <v>6.393617702749574</v>
       </c>
       <c r="E5">
-        <v>5.403244393661753</v>
+        <v>26.29081713289731</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.100914363967519</v>
+        <v>2.028196467898117</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>27.50560399857208</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.344388601101103</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.73148116300047</v>
+        <v>13.32297980545815</v>
       </c>
       <c r="O5">
-        <v>33.19421131294489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.97867942839361</v>
+        <v>29.0115120424921</v>
       </c>
       <c r="C6">
-        <v>15.42550046652199</v>
+        <v>29.19110816198121</v>
       </c>
       <c r="D6">
-        <v>6.163773651269723</v>
+        <v>6.367955700816093</v>
       </c>
       <c r="E6">
-        <v>5.404432328349771</v>
+        <v>26.18041848739053</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.101574801983092</v>
+        <v>2.029119046723851</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.43466254277981</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.33287323553031</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.73867189153262</v>
+        <v>13.32747160899867</v>
       </c>
       <c r="O6">
-        <v>33.12696469586368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.59790079306343</v>
+        <v>29.82667938644585</v>
       </c>
       <c r="C7">
-        <v>15.83780348448932</v>
+        <v>30.02096469881712</v>
       </c>
       <c r="D7">
-        <v>6.305380387865163</v>
+        <v>6.544915537117221</v>
       </c>
       <c r="E7">
-        <v>5.396300294708105</v>
+        <v>26.94290134331266</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.097005583589929</v>
+        <v>2.022718068967175</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.92823052952155</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.413072220247637</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.68926374067258</v>
+        <v>13.29702895862855</v>
       </c>
       <c r="O7">
-        <v>33.59472184106814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.24913019747342</v>
+        <v>33.30454878799122</v>
       </c>
       <c r="C8">
-        <v>17.57632711864036</v>
+        <v>33.57451130075301</v>
       </c>
       <c r="D8">
-        <v>6.996894739601085</v>
+        <v>7.298834293783058</v>
       </c>
       <c r="E8">
-        <v>5.363298722796058</v>
+        <v>30.22507581290738</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.077170886158541</v>
+        <v>1.994407995340203</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30.13858753342389</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.773458469226337</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.48429160711945</v>
+        <v>13.18269756172768</v>
       </c>
       <c r="O8">
-        <v>35.68253868168584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.41415599914898</v>
+        <v>39.80005635207149</v>
       </c>
       <c r="C9">
-        <v>20.71702572497863</v>
+        <v>40.27044177857397</v>
       </c>
       <c r="D9">
-        <v>8.245997403845823</v>
+        <v>8.702449433154577</v>
       </c>
       <c r="E9">
-        <v>5.309822764456666</v>
+        <v>36.51292944412027</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.038991189120956</v>
+        <v>1.93701167093875</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>34.78284972998731</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.502893298881336</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.1362994830259</v>
+        <v>13.05285345608596</v>
       </c>
       <c r="O9">
-        <v>39.86313583852482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.0677789125026</v>
+        <v>44.52181386556349</v>
       </c>
       <c r="C10">
-        <v>22.88597304884093</v>
+        <v>45.19177465140827</v>
       </c>
       <c r="D10">
-        <v>9.108134798790966</v>
+        <v>9.718545044671361</v>
       </c>
       <c r="E10">
-        <v>5.278483547959273</v>
+        <v>41.25712124860869</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.010839836679007</v>
+        <v>1.891356647891562</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>38.87048982931297</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.054195738159631</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.92213035963788</v>
+        <v>13.04584456715686</v>
       </c>
       <c r="O10">
-        <v>43.00297300967569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>40.69358469852295</v>
+        <v>46.71229369954293</v>
       </c>
       <c r="C11">
-        <v>23.84954497661957</v>
+        <v>47.49244961410037</v>
       </c>
       <c r="D11">
-        <v>9.490908221444714</v>
+        <v>10.18832334057158</v>
       </c>
       <c r="E11">
-        <v>5.266285333545609</v>
+        <v>43.52326019768404</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.997860820539232</v>
+        <v>1.868977858676197</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>40.80714340548465</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.309273209451211</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.83623827401426</v>
+        <v>13.07260294263024</v>
       </c>
       <c r="O11">
-        <v>44.45364703949072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.30506427975175</v>
+        <v>47.55514707442499</v>
       </c>
       <c r="C12">
-        <v>24.21182083454343</v>
+        <v>48.38096403335812</v>
       </c>
       <c r="D12">
-        <v>9.63477063675256</v>
+        <v>10.36875209435133</v>
       </c>
       <c r="E12">
-        <v>5.26199921228198</v>
+        <v>44.40829607120153</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.992905461310867</v>
+        <v>1.860155631347824</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>41.55878109747252</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.406610315987633</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.80564435027674</v>
+        <v>13.08844864265667</v>
       </c>
       <c r="O12">
-        <v>45.00715195762707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.1735379630214</v>
+        <v>47.37287307166234</v>
       </c>
       <c r="C13">
-        <v>24.1339013177254</v>
+        <v>48.18865616787414</v>
       </c>
       <c r="D13">
-        <v>9.603830721407263</v>
+        <v>10.32974991684837</v>
       </c>
       <c r="E13">
-        <v>5.262906796225248</v>
+        <v>44.21624197067646</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.99397477152388</v>
+        <v>1.862073635126156</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>41.39593433597174</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.385611319532762</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.81214238812508</v>
+        <v>13.08475238584517</v>
       </c>
       <c r="O13">
-        <v>44.88774078771934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40.74396844216392</v>
+        <v>46.78131320515276</v>
       </c>
       <c r="C14">
-        <v>23.87939729672778</v>
+        <v>47.56513810549476</v>
       </c>
       <c r="D14">
-        <v>9.502763897551267</v>
+        <v>10.20310569486414</v>
       </c>
       <c r="E14">
-        <v>5.265925789468532</v>
+        <v>43.59544626873327</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.997454052775631</v>
+        <v>1.868259899296417</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>40.8685604395936</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.317265351265444</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.83368080150964</v>
+        <v>13.07378171326281</v>
       </c>
       <c r="O14">
-        <v>44.49909410553177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.48033538587568</v>
+        <v>46.42098274150527</v>
       </c>
       <c r="C15">
-        <v>23.72319020887629</v>
+        <v>47.18578868103261</v>
       </c>
       <c r="D15">
-        <v>9.440725044973794</v>
+        <v>10.12591729680965</v>
       </c>
       <c r="E15">
-        <v>5.267819650556698</v>
+        <v>43.21913437446911</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.999579421173077</v>
+        <v>1.871999420550511</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>40.54818328534757</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.27550312365886</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.84713437817345</v>
+        <v>13.06785837913564</v>
       </c>
       <c r="O15">
-        <v>44.26161314795917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>38.96088250339839</v>
+        <v>44.38006136427718</v>
       </c>
       <c r="C16">
-        <v>22.82259445761389</v>
+        <v>45.04329610255379</v>
       </c>
       <c r="D16">
-        <v>9.082951965441476</v>
+        <v>9.688105065110181</v>
       </c>
       <c r="E16">
-        <v>5.279325110195604</v>
+        <v>41.11204266314456</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.011683302553652</v>
+        <v>1.892778024256698</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>38.74601401418683</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.037621966438435</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.92799770870033</v>
+        <v>13.04480538282661</v>
       </c>
       <c r="O16">
-        <v>42.90869200890976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.02012917598413</v>
+        <v>43.14310051821534</v>
       </c>
       <c r="C17">
-        <v>22.26465837297088</v>
+        <v>43.74964375983122</v>
       </c>
       <c r="D17">
-        <v>8.861233403107441</v>
+        <v>9.422296430519324</v>
       </c>
       <c r="E17">
-        <v>5.286934099379035</v>
+        <v>39.8535297659182</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.019054205949682</v>
+        <v>1.905045597031535</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>37.66431160350061</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.892864103259853</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.98073521592389</v>
+        <v>13.03916085491259</v>
       </c>
       <c r="O17">
-        <v>42.08502330221214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.47554686949491</v>
+        <v>42.43506409408874</v>
       </c>
       <c r="C18">
-        <v>21.94152479506863</v>
+        <v>43.01073513382907</v>
       </c>
       <c r="D18">
-        <v>8.732801632393791</v>
+        <v>9.270007387957998</v>
       </c>
       <c r="E18">
-        <v>5.291501620284459</v>
+        <v>39.13892222895898</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.023278586335395</v>
+        <v>1.911959227191639</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>37.04883618813343</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.809996458072543</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.01213468171198</v>
+        <v>13.03862367305569</v>
       </c>
       <c r="O18">
-        <v>41.61330011519692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.29053412042179</v>
+        <v>42.19575419733603</v>
       </c>
       <c r="C19">
-        <v>21.83171591195522</v>
+        <v>42.7612442300356</v>
       </c>
       <c r="D19">
-        <v>8.689154010633619</v>
+        <v>9.218513236641284</v>
       </c>
       <c r="E19">
-        <v>5.293079928684187</v>
+        <v>38.89829651584781</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.024706710506608</v>
+        <v>1.914278338518909</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>36.8414294685258</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.782003300414805</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.0229417506108</v>
+        <v>13.0388733068774</v>
       </c>
       <c r="O19">
-        <v>41.45390727955265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.12062798851086</v>
+        <v>43.27437995426897</v>
       </c>
       <c r="C20">
-        <v>22.32427702179863</v>
+        <v>43.88677199902283</v>
       </c>
       <c r="D20">
-        <v>8.884927614574968</v>
+        <v>9.45052196026387</v>
       </c>
       <c r="E20">
-        <v>5.286104098711295</v>
+        <v>39.98647779151279</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.01827123389425</v>
+        <v>1.903755100051705</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>37.77872687982466</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.908232349224704</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.97500907559723</v>
+        <v>13.03947297324995</v>
       </c>
       <c r="O20">
-        <v>42.17248831934668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40.87024737314282</v>
+        <v>46.95462982191253</v>
       </c>
       <c r="C21">
-        <v>23.95421567418587</v>
+        <v>47.74772269418912</v>
       </c>
       <c r="D21">
-        <v>9.532476731052911</v>
+        <v>10.24022030765571</v>
       </c>
       <c r="E21">
-        <v>5.265029654667602</v>
+        <v>43.77693750497951</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.996433343183765</v>
+        <v>1.866453507854212</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>41.02289123824401</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.337318733493928</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.82729954720779</v>
+        <v>13.07683458534649</v>
       </c>
       <c r="O21">
-        <v>44.61312677331274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>42.64359562414224</v>
+        <v>49.44438649625453</v>
       </c>
       <c r="C22">
-        <v>25.00471731115919</v>
+        <v>50.37957775724159</v>
       </c>
       <c r="D22">
-        <v>9.94952587211079</v>
+        <v>10.77239996823137</v>
       </c>
       <c r="E22">
-        <v>5.25322248945538</v>
+        <v>46.42177464760249</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.981915236230784</v>
+        <v>1.839940933855508</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>43.25624467507545</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.622190729911431</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.74219513985342</v>
+        <v>13.13576602793343</v>
       </c>
       <c r="O22">
-        <v>46.23320067416283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41.69888638490443</v>
+        <v>48.10432158430353</v>
       </c>
       <c r="C23">
-        <v>24.44511972761396</v>
+        <v>48.96091108543004</v>
       </c>
       <c r="D23">
-        <v>9.727399327574263</v>
+        <v>10.48620270500632</v>
       </c>
       <c r="E23">
-        <v>5.259329359859093</v>
+        <v>44.98920674233387</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.989692376113489</v>
+        <v>1.854342791294498</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>42.05041317087083</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.469686936639722</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.78646400860101</v>
+        <v>13.10049720135241</v>
       </c>
       <c r="O23">
-        <v>45.3658477167567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.07520417054031</v>
+        <v>43.21501932794605</v>
       </c>
       <c r="C24">
-        <v>22.29733086048407</v>
+        <v>43.82476184630516</v>
       </c>
       <c r="D24">
-        <v>8.874218480097749</v>
+        <v>9.43775965225568</v>
       </c>
       <c r="E24">
-        <v>5.286478743494599</v>
+        <v>39.92634494047113</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.018625255695001</v>
+        <v>1.904338959335832</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>37.72698025164537</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.901283266679121</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.97759451956037</v>
+        <v>13.03932352616967</v>
       </c>
       <c r="O24">
-        <v>42.13293979954172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.03082975307641</v>
+        <v>38.06513765846742</v>
       </c>
       <c r="C25">
-        <v>19.89376242599665</v>
+        <v>38.47406358808322</v>
       </c>
       <c r="D25">
-        <v>7.918623887122807</v>
+        <v>8.328141362922484</v>
       </c>
       <c r="E25">
-        <v>5.322987136895872</v>
+        <v>34.8098920886746</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.049293347441791</v>
+        <v>1.952937582623767</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>33.40368907603991</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.303063794989916</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.22387896362352</v>
+        <v>13.07522997716043</v>
       </c>
       <c r="O25">
-        <v>38.72194323512508</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.22087755989647</v>
+        <v>21.45275908512185</v>
       </c>
       <c r="C2">
-        <v>34.51433936270701</v>
+        <v>20.02945465575656</v>
       </c>
       <c r="D2">
-        <v>7.49719744178093</v>
+        <v>5.9957883131722</v>
       </c>
       <c r="E2">
-        <v>31.09857397363439</v>
+        <v>16.37683494653892</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.986673986820882</v>
+        <v>3.653486065520515</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.74695112580357</v>
+        <v>28.54966882240423</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.15724304973101</v>
+        <v>18.53878884512057</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.53544857139841</v>
+        <v>20.62898603025496</v>
       </c>
       <c r="C3">
-        <v>31.76426867928877</v>
+        <v>19.04399962648701</v>
       </c>
       <c r="D3">
-        <v>6.915546011972437</v>
+        <v>5.882050128650533</v>
       </c>
       <c r="E3">
-        <v>28.54931761965648</v>
+        <v>15.44446074142737</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.009013030237193</v>
+        <v>3.659877664583931</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.99390384320801</v>
+        <v>28.21839105510682</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.23753595810318</v>
+        <v>18.56600056890706</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.8361487457603</v>
+        <v>20.11508000833933</v>
       </c>
       <c r="C4">
-        <v>30.0306114597774</v>
+        <v>18.42049241153628</v>
       </c>
       <c r="D4">
-        <v>6.546970596425061</v>
+        <v>5.813374750592495</v>
       </c>
       <c r="E4">
-        <v>26.95177280108553</v>
+        <v>14.8495677531223</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.022643195440325</v>
+        <v>3.663986330843474</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.93402179854188</v>
+        <v>28.02220408376729</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.29668285645582</v>
+        <v>18.58465433105099</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.12969539939867</v>
+        <v>19.90398743118845</v>
       </c>
       <c r="C5">
-        <v>29.3113498127192</v>
+        <v>18.16215328699376</v>
       </c>
       <c r="D5">
-        <v>6.393617702749574</v>
+        <v>5.785718620852172</v>
       </c>
       <c r="E5">
-        <v>26.29081713289731</v>
+        <v>14.60178108072154</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.028196467898117</v>
+        <v>3.665707249719177</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.50560399857208</v>
+        <v>27.94413462771861</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.32297980545815</v>
+        <v>18.5927414054744</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.0115120424921</v>
+        <v>19.86884607542741</v>
       </c>
       <c r="C6">
-        <v>29.19110816198121</v>
+        <v>18.11901152454517</v>
       </c>
       <c r="D6">
-        <v>6.367955700816093</v>
+        <v>5.78114734959065</v>
       </c>
       <c r="E6">
-        <v>26.18041848739053</v>
+        <v>14.56032140596913</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.029119046723851</v>
+        <v>3.665995830090506</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.43466254277981</v>
+        <v>27.93128644964328</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.32747160899867</v>
+        <v>18.59411347355112</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.82667938644585</v>
+        <v>20.11223939943191</v>
       </c>
       <c r="C7">
-        <v>30.02096469881712</v>
+        <v>18.41702504311991</v>
       </c>
       <c r="D7">
-        <v>6.544915537117221</v>
+        <v>5.813000385891694</v>
       </c>
       <c r="E7">
-        <v>26.94290134331266</v>
+        <v>14.84624733039862</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.022718068967175</v>
+        <v>3.664009350680308</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.92823052952155</v>
+        <v>28.0211435266529</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.29702895862855</v>
+        <v>18.58476143522236</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.30454878799122</v>
+        <v>21.17061401664428</v>
       </c>
       <c r="C8">
-        <v>33.57451130075301</v>
+        <v>19.69370680510226</v>
       </c>
       <c r="D8">
-        <v>7.298834293783058</v>
+        <v>5.95635337360175</v>
       </c>
       <c r="E8">
-        <v>30.22507581290738</v>
+        <v>16.06015146876109</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.994407995340203</v>
+        <v>3.655651831531955</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.13858753342389</v>
+        <v>28.43398519783494</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.18269756172768</v>
+        <v>18.54776536611779</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.80005635207149</v>
+        <v>23.16739397162576</v>
       </c>
       <c r="C9">
-        <v>40.27044177857397</v>
+        <v>22.03702232003041</v>
       </c>
       <c r="D9">
-        <v>8.702449433154577</v>
+        <v>6.24500516489932</v>
       </c>
       <c r="E9">
-        <v>36.51292944412027</v>
+        <v>18.3083110563658</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.93701167093875</v>
+        <v>3.640711167524708</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.78284972998731</v>
+        <v>29.29786841194011</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.05285345608596</v>
+        <v>18.4908241630176</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.52181386556349</v>
+        <v>24.5696186092189</v>
       </c>
       <c r="C10">
-        <v>45.19177465140827</v>
+        <v>23.6456102532911</v>
       </c>
       <c r="D10">
-        <v>9.718545044671361</v>
+        <v>6.459462604706394</v>
       </c>
       <c r="E10">
-        <v>41.25712124860869</v>
+        <v>19.97433918212398</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.891356647891562</v>
+        <v>3.630598725155235</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>38.87048982931297</v>
+        <v>29.96144686722331</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.04584456715686</v>
+        <v>18.45874241492369</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>46.71229369954293</v>
+        <v>25.1905517926124</v>
       </c>
       <c r="C11">
-        <v>47.49244961410037</v>
+        <v>24.35044384574589</v>
       </c>
       <c r="D11">
-        <v>10.18832334057158</v>
+        <v>6.557091458098065</v>
       </c>
       <c r="E11">
-        <v>43.52326019768404</v>
+        <v>20.69188093802045</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.868977858676197</v>
+        <v>3.626181981818574</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>40.80714340548465</v>
+        <v>30.26864936202131</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.07260294263024</v>
+        <v>18.4463178271214</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47.55514707442499</v>
+        <v>25.42304490274724</v>
       </c>
       <c r="C12">
-        <v>48.38096403335812</v>
+        <v>24.61331962926647</v>
       </c>
       <c r="D12">
-        <v>10.36875209435133</v>
+        <v>6.594035339273757</v>
       </c>
       <c r="E12">
-        <v>44.40829607120153</v>
+        <v>20.95784268837326</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.860155631347824</v>
+        <v>3.624535534189389</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>41.55878109747252</v>
+        <v>30.38566472752774</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.08844864265667</v>
+        <v>18.44192935317668</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47.37287307166234</v>
+        <v>25.37309375871779</v>
       </c>
       <c r="C13">
-        <v>48.18865616787414</v>
+        <v>24.5568860447829</v>
       </c>
       <c r="D13">
-        <v>10.32974991684837</v>
+        <v>6.58608053121655</v>
       </c>
       <c r="E13">
-        <v>44.21624197067646</v>
+        <v>20.90081832834722</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.862073635126156</v>
+        <v>3.624888971231239</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>41.39593433597174</v>
+        <v>30.36043425888939</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.08475238584517</v>
+        <v>18.44286034348776</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>46.78131320515276</v>
+        <v>25.2097331371156</v>
       </c>
       <c r="C14">
-        <v>47.56513810549476</v>
+        <v>24.37215235222047</v>
       </c>
       <c r="D14">
-        <v>10.20310569486414</v>
+        <v>6.560131577130544</v>
       </c>
       <c r="E14">
-        <v>43.59544626873327</v>
+        <v>20.7138768634388</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.868259899296417</v>
+        <v>3.626046006709355</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>40.8685604395936</v>
+        <v>30.27826304594565</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.07378171326281</v>
+        <v>18.44595041681162</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.42098274150527</v>
+        <v>25.10932054490632</v>
       </c>
       <c r="C15">
-        <v>47.18578868103261</v>
+        <v>24.25846869016014</v>
       </c>
       <c r="D15">
-        <v>10.12591729680965</v>
+        <v>6.544232653929467</v>
       </c>
       <c r="E15">
-        <v>43.21913437446911</v>
+        <v>20.5986216047381</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.871999420550511</v>
+        <v>3.62675811129149</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>40.54818328534757</v>
+        <v>30.22801747056198</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.06785837913564</v>
+        <v>18.44788452066793</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44.38006136427718</v>
+        <v>24.52868009389082</v>
       </c>
       <c r="C16">
-        <v>45.04329610255379</v>
+        <v>23.59899179683778</v>
       </c>
       <c r="D16">
-        <v>9.688105065110181</v>
+        <v>6.453080621661051</v>
       </c>
       <c r="E16">
-        <v>41.11204266314456</v>
+        <v>19.92663822692864</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.892778024256698</v>
+        <v>3.630891035471737</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.74601401418683</v>
+        <v>29.9414707720103</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.04480538282661</v>
+        <v>18.45959842819588</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.14310051821534</v>
+        <v>24.16798164485526</v>
       </c>
       <c r="C17">
-        <v>43.74964375983122</v>
+        <v>23.18740679508483</v>
       </c>
       <c r="D17">
-        <v>9.422296430519324</v>
+        <v>6.397153684497246</v>
       </c>
       <c r="E17">
-        <v>39.8535297659182</v>
+        <v>19.50409776133959</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.905045597031535</v>
+        <v>3.633473223478136</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.66431160350061</v>
+        <v>29.76699173510785</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.03916085491259</v>
+        <v>18.46734336182201</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42.43506409408874</v>
+        <v>23.95893275441659</v>
       </c>
       <c r="C18">
-        <v>43.01073513382907</v>
+        <v>22.94814745136317</v>
       </c>
       <c r="D18">
-        <v>9.270007387957998</v>
+        <v>6.364994752853241</v>
       </c>
       <c r="E18">
-        <v>39.13892222895898</v>
+        <v>19.25726367554778</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.911959227191639</v>
+        <v>3.634975715993074</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.04883618813343</v>
+        <v>29.6671434055733</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.03862367305569</v>
+        <v>18.47200198038714</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>42.19575419733603</v>
+        <v>23.88788689739929</v>
       </c>
       <c r="C19">
-        <v>42.7612442300356</v>
+        <v>22.86670972516779</v>
       </c>
       <c r="D19">
-        <v>9.218513236641284</v>
+        <v>6.354108928515162</v>
       </c>
       <c r="E19">
-        <v>38.89829651584781</v>
+        <v>19.17303586137763</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.914278338518909</v>
+        <v>3.635487412262185</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.8414294685258</v>
+        <v>29.63342614574649</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.0388733068774</v>
+        <v>18.473614200017</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.27437995426897</v>
+        <v>24.20654418539318</v>
       </c>
       <c r="C20">
-        <v>43.88677199902283</v>
+        <v>23.23148344776928</v>
       </c>
       <c r="D20">
-        <v>9.45052196026387</v>
+        <v>6.403106563495577</v>
       </c>
       <c r="E20">
-        <v>39.98647779151279</v>
+        <v>19.54947087004511</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.903755100051705</v>
+        <v>3.633196558283029</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.77872687982466</v>
+        <v>29.78551341318455</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.03947297324995</v>
+        <v>18.46649776155139</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46.95462982191253</v>
+        <v>25.25778927173745</v>
       </c>
       <c r="C21">
-        <v>47.74772269418912</v>
+        <v>24.42652358873323</v>
       </c>
       <c r="D21">
-        <v>10.24022030765571</v>
+        <v>6.567754401487505</v>
       </c>
       <c r="E21">
-        <v>43.77693750497951</v>
+        <v>20.76894194900202</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.866453507854212</v>
+        <v>3.625705452052286</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>41.02289123824401</v>
+        <v>30.3023808105108</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.07683458534649</v>
+        <v>18.44503416304879</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.44438649625453</v>
+        <v>25.92937038129202</v>
       </c>
       <c r="C22">
-        <v>50.37957775724159</v>
+        <v>25.18401135299923</v>
       </c>
       <c r="D22">
-        <v>10.77239996823137</v>
+        <v>6.675193879697368</v>
       </c>
       <c r="E22">
-        <v>46.42177464760249</v>
+        <v>21.53240917786331</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.839940933855508</v>
+        <v>3.620961435393506</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>43.25624467507545</v>
+        <v>30.64413446138937</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.13576602793343</v>
+        <v>18.43285309012255</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48.10432158430353</v>
+        <v>25.57241064009423</v>
       </c>
       <c r="C23">
-        <v>48.96091108543004</v>
+        <v>24.78192469513845</v>
       </c>
       <c r="D23">
-        <v>10.48620270500632</v>
+        <v>6.61787825892306</v>
       </c>
       <c r="E23">
-        <v>44.98920674233387</v>
+        <v>21.12798504964102</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.854342791294498</v>
+        <v>3.623479613026344</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>42.05041317087083</v>
+        <v>30.46140006888973</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.10049720135241</v>
+        <v>18.43918389464662</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>43.21501932794605</v>
+        <v>24.18911527334118</v>
       </c>
       <c r="C24">
-        <v>43.82476184630516</v>
+        <v>23.21156458399724</v>
       </c>
       <c r="D24">
-        <v>9.43775965225568</v>
+        <v>6.400415282165503</v>
       </c>
       <c r="E24">
-        <v>39.92634494047113</v>
+        <v>19.52896986964194</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.904338959335832</v>
+        <v>3.633321582659065</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.72698025164537</v>
+        <v>29.77713831722494</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.03932352616967</v>
+        <v>18.46687941627363</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.06513765846742</v>
+        <v>22.63750400909523</v>
       </c>
       <c r="C25">
-        <v>38.47406358808322</v>
+        <v>21.42200435912712</v>
       </c>
       <c r="D25">
-        <v>8.328141362922484</v>
+        <v>6.166341179174973</v>
       </c>
       <c r="E25">
-        <v>34.8098920886746</v>
+        <v>17.68119384690134</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.952937582623767</v>
+        <v>3.644599855073086</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.40368907603991</v>
+        <v>29.0587761718688</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.07522997716043</v>
+        <v>18.50453299374485</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.45275908512185</v>
+        <v>34.22087755989639</v>
       </c>
       <c r="C2">
-        <v>20.02945465575656</v>
+        <v>34.5143393627069</v>
       </c>
       <c r="D2">
-        <v>5.9957883131722</v>
+        <v>7.497197441781002</v>
       </c>
       <c r="E2">
-        <v>16.37683494653892</v>
+        <v>31.09857397363442</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.653486065520515</v>
+        <v>1.986673986820892</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.54966882240423</v>
+        <v>30.74695112580364</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.53878884512057</v>
+        <v>13.15724304973111</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.62898603025496</v>
+        <v>31.53544857139843</v>
       </c>
       <c r="C3">
-        <v>19.04399962648701</v>
+        <v>31.76426867928879</v>
       </c>
       <c r="D3">
-        <v>5.882050128650533</v>
+        <v>6.915546011972465</v>
       </c>
       <c r="E3">
-        <v>15.44446074142737</v>
+        <v>28.54931761965637</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.659877664583931</v>
+        <v>2.009013030237332</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.21839105510682</v>
+        <v>28.99390384320809</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.56600056890706</v>
+        <v>13.23753595810316</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.11508000833933</v>
+        <v>29.83614874576037</v>
       </c>
       <c r="C4">
-        <v>18.42049241153628</v>
+        <v>30.03061145977742</v>
       </c>
       <c r="D4">
-        <v>5.813374750592495</v>
+        <v>6.546970596425035</v>
       </c>
       <c r="E4">
-        <v>14.8495677531223</v>
+        <v>26.95177280108562</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.663986330843474</v>
+        <v>2.022643195440325</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.02220408376729</v>
+        <v>27.93402179854197</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.58465433105099</v>
+        <v>13.29668285645584</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.90398743118845</v>
+        <v>29.12969539939849</v>
       </c>
       <c r="C5">
-        <v>18.16215328699376</v>
+        <v>29.31134981271901</v>
       </c>
       <c r="D5">
-        <v>5.785718620852172</v>
+        <v>6.393617702749515</v>
       </c>
       <c r="E5">
-        <v>14.60178108072154</v>
+        <v>26.2908171328972</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.665707249719177</v>
+        <v>2.028196467898249</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.94413462771861</v>
+        <v>27.50560399857212</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.5927414054744</v>
+        <v>13.32297980545824</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.86884607542741</v>
+        <v>29.01151204249197</v>
       </c>
       <c r="C6">
-        <v>18.11901152454517</v>
+        <v>29.19110816198101</v>
       </c>
       <c r="D6">
-        <v>5.78114734959065</v>
+        <v>6.367955700816028</v>
       </c>
       <c r="E6">
-        <v>14.56032140596913</v>
+        <v>26.18041848739048</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.665995830090506</v>
+        <v>2.029119046723982</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.93128644964328</v>
+        <v>27.43466254277983</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.59411347355112</v>
+        <v>13.32747160899875</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.11223939943191</v>
+        <v>29.826679386446</v>
       </c>
       <c r="C7">
-        <v>18.41702504311991</v>
+        <v>30.02096469881709</v>
       </c>
       <c r="D7">
-        <v>5.813000385891694</v>
+        <v>6.544915537117254</v>
       </c>
       <c r="E7">
-        <v>14.84624733039862</v>
+        <v>26.94290134331283</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.664009350680308</v>
+        <v>2.022718068967048</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.0211435266529</v>
+        <v>27.92823052952167</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.58476143522236</v>
+        <v>13.29702895862855</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.17061401664428</v>
+        <v>33.30454878799118</v>
       </c>
       <c r="C8">
-        <v>19.69370680510226</v>
+        <v>33.57451130075301</v>
       </c>
       <c r="D8">
-        <v>5.95635337360175</v>
+        <v>7.298834293783088</v>
       </c>
       <c r="E8">
-        <v>16.06015146876109</v>
+        <v>30.22507581290743</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.655651831531955</v>
+        <v>1.994407995340197</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.43398519783494</v>
+        <v>30.13858753342392</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.54776536611779</v>
+        <v>13.18269756172771</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.16739397162576</v>
+        <v>39.80005635207155</v>
       </c>
       <c r="C9">
-        <v>22.03702232003041</v>
+        <v>40.27044177857398</v>
       </c>
       <c r="D9">
-        <v>6.24500516489932</v>
+        <v>8.702449433154655</v>
       </c>
       <c r="E9">
-        <v>18.3083110563658</v>
+        <v>36.51292944412018</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.640711167524708</v>
+        <v>1.937011670938743</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.29786841194011</v>
+        <v>34.78284972998743</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.4908241630176</v>
+        <v>13.05285345608606</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.5696186092189</v>
+        <v>44.52181386556357</v>
       </c>
       <c r="C10">
-        <v>23.6456102532911</v>
+        <v>45.19177465140831</v>
       </c>
       <c r="D10">
-        <v>6.459462604706394</v>
+        <v>9.718545044671414</v>
       </c>
       <c r="E10">
-        <v>19.97433918212398</v>
+        <v>41.25712124860877</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.630598725155235</v>
+        <v>1.891356647891696</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.96144686722331</v>
+        <v>38.87048982931315</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.45874241492369</v>
+        <v>13.04584456715685</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.1905517926124</v>
+        <v>46.71229369954259</v>
       </c>
       <c r="C11">
-        <v>24.35044384574589</v>
+        <v>47.49244961410007</v>
       </c>
       <c r="D11">
-        <v>6.557091458098065</v>
+        <v>10.18832334057141</v>
       </c>
       <c r="E11">
-        <v>20.69188093802045</v>
+        <v>43.52326019768384</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.626181981818574</v>
+        <v>1.868977858676182</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.26864936202131</v>
+        <v>40.80714340548436</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.4463178271214</v>
+        <v>13.07260294263023</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.42304490274724</v>
+        <v>47.55514707442535</v>
       </c>
       <c r="C12">
-        <v>24.61331962926647</v>
+        <v>48.38096403335844</v>
       </c>
       <c r="D12">
-        <v>6.594035339273757</v>
+        <v>10.36875209435128</v>
       </c>
       <c r="E12">
-        <v>20.95784268837326</v>
+        <v>44.40829607120178</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.624535534189389</v>
+        <v>1.860155631347824</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.38566472752774</v>
+        <v>41.5587810974729</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.44192935317668</v>
+        <v>13.08844864265669</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.37309375871779</v>
+        <v>47.37287307166218</v>
       </c>
       <c r="C13">
-        <v>24.5568860447829</v>
+        <v>48.18865616787404</v>
       </c>
       <c r="D13">
-        <v>6.58608053121655</v>
+        <v>10.32974991684836</v>
       </c>
       <c r="E13">
-        <v>20.90081832834722</v>
+        <v>44.21624197067632</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.624888971231239</v>
+        <v>1.862073635126274</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.36043425888939</v>
+        <v>41.39593433597164</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.44286034348776</v>
+        <v>13.08475238584513</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.2097331371156</v>
+        <v>46.78131320515261</v>
       </c>
       <c r="C14">
-        <v>24.37215235222047</v>
+        <v>47.56513810549457</v>
       </c>
       <c r="D14">
-        <v>6.560131577130544</v>
+        <v>10.2031056948642</v>
       </c>
       <c r="E14">
-        <v>20.7138768634388</v>
+        <v>43.59544626873312</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.626046006709355</v>
+        <v>1.868259899296548</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.27826304594565</v>
+        <v>40.86856043959346</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.44595041681162</v>
+        <v>13.07378171326279</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.10932054490632</v>
+        <v>46.4209827415052</v>
       </c>
       <c r="C15">
-        <v>24.25846869016014</v>
+        <v>47.18578868103238</v>
       </c>
       <c r="D15">
-        <v>6.544232653929467</v>
+        <v>10.12591729680957</v>
       </c>
       <c r="E15">
-        <v>20.5986216047381</v>
+        <v>43.21913437446903</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.62675811129149</v>
+        <v>1.871999420550527</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.22801747056198</v>
+        <v>40.5481832853476</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.44788452066793</v>
+        <v>13.0678583791357</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.52868009389082</v>
+        <v>44.38006136427733</v>
       </c>
       <c r="C16">
-        <v>23.59899179683778</v>
+        <v>45.04329610255389</v>
       </c>
       <c r="D16">
-        <v>6.453080621661051</v>
+        <v>9.688105065110229</v>
       </c>
       <c r="E16">
-        <v>19.92663822692864</v>
+        <v>41.11204266314464</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.630891035471737</v>
+        <v>1.892778024256452</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.9414707720103</v>
+        <v>38.74601401418698</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.45959842819588</v>
+        <v>13.04480538282662</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.16798164485526</v>
+        <v>43.14310051821518</v>
       </c>
       <c r="C17">
-        <v>23.18740679508483</v>
+        <v>43.74964375983085</v>
       </c>
       <c r="D17">
-        <v>6.397153684497246</v>
+        <v>9.422296430519292</v>
       </c>
       <c r="E17">
-        <v>19.50409776133959</v>
+        <v>39.85352976591818</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.633473223478136</v>
+        <v>1.905045597031535</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.76699173510785</v>
+        <v>37.66431160350051</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.46734336182201</v>
+        <v>13.03916085491265</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.95893275441659</v>
+        <v>42.43506409408901</v>
       </c>
       <c r="C18">
-        <v>22.94814745136317</v>
+        <v>43.01073513382931</v>
       </c>
       <c r="D18">
-        <v>6.364994752853241</v>
+        <v>9.270007387958032</v>
       </c>
       <c r="E18">
-        <v>19.25726367554778</v>
+        <v>39.13892222895907</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.634975715993074</v>
+        <v>1.911959227191639</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.6671434055733</v>
+        <v>37.04883618813369</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.47200198038714</v>
+        <v>13.0386236730557</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.88788689739929</v>
+        <v>42.19575419733623</v>
       </c>
       <c r="C19">
-        <v>22.86670972516779</v>
+        <v>42.76124423003566</v>
       </c>
       <c r="D19">
-        <v>6.354108928515162</v>
+        <v>9.218513236641252</v>
       </c>
       <c r="E19">
-        <v>19.17303586137763</v>
+        <v>38.89829651584794</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.635487412262185</v>
+        <v>1.914278338518909</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.63342614574649</v>
+        <v>36.84142946852592</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.473614200017</v>
+        <v>13.03887330687736</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.20654418539318</v>
+        <v>43.27437995426882</v>
       </c>
       <c r="C20">
-        <v>23.23148344776928</v>
+        <v>43.88677199902256</v>
       </c>
       <c r="D20">
-        <v>6.403106563495577</v>
+        <v>9.450521960263865</v>
       </c>
       <c r="E20">
-        <v>19.54947087004511</v>
+        <v>39.98647779151276</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.633196558283029</v>
+        <v>1.90375510005209</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.78551341318455</v>
+        <v>37.7787268798246</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.46649776155139</v>
+        <v>13.03947297325003</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.25778927173745</v>
+        <v>46.95462982191268</v>
       </c>
       <c r="C21">
-        <v>24.42652358873323</v>
+        <v>47.74772269418918</v>
       </c>
       <c r="D21">
-        <v>6.567754401487505</v>
+        <v>10.24022030765574</v>
       </c>
       <c r="E21">
-        <v>20.76894194900202</v>
+        <v>43.77693750497959</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.625705452052286</v>
+        <v>1.866453507854086</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.3023808105108</v>
+        <v>41.02289123824419</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.44503416304879</v>
+        <v>13.07683458534648</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.92937038129202</v>
+        <v>49.44438649625454</v>
       </c>
       <c r="C22">
-        <v>25.18401135299923</v>
+        <v>50.37957775724149</v>
       </c>
       <c r="D22">
-        <v>6.675193879697368</v>
+        <v>10.77239996823139</v>
       </c>
       <c r="E22">
-        <v>21.53240917786331</v>
+        <v>46.42177464760247</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.620961435393506</v>
+        <v>1.839940933855915</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.64413446138937</v>
+        <v>43.25624467507544</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.43285309012255</v>
+        <v>13.1357660279335</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.57241064009423</v>
+        <v>48.10432158430363</v>
       </c>
       <c r="C23">
-        <v>24.78192469513845</v>
+        <v>48.96091108543004</v>
       </c>
       <c r="D23">
-        <v>6.61787825892306</v>
+        <v>10.48620270500639</v>
       </c>
       <c r="E23">
-        <v>21.12798504964102</v>
+        <v>44.98920674233381</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.623479613026344</v>
+        <v>1.854342791294763</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.46140006888973</v>
+        <v>42.05041317087092</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.43918389464662</v>
+        <v>13.10049720135247</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.18911527334118</v>
+        <v>43.2150193279463</v>
       </c>
       <c r="C24">
-        <v>23.21156458399724</v>
+        <v>43.82476184630528</v>
       </c>
       <c r="D24">
-        <v>6.400415282165503</v>
+        <v>9.437759652255776</v>
       </c>
       <c r="E24">
-        <v>19.52896986964194</v>
+        <v>39.92634494047119</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.633321582659065</v>
+        <v>1.904338959335967</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.77713831722494</v>
+        <v>37.72698025164561</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.46687941627363</v>
+        <v>13.03932352616967</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.63750400909523</v>
+        <v>38.0651376584673</v>
       </c>
       <c r="C25">
-        <v>21.42200435912712</v>
+        <v>38.47406358808302</v>
       </c>
       <c r="D25">
-        <v>6.166341179174973</v>
+        <v>8.328141362922437</v>
       </c>
       <c r="E25">
-        <v>17.68119384690134</v>
+        <v>34.80989208867458</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.644599855073086</v>
+        <v>1.95293758262377</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.0587761718688</v>
+        <v>33.4036890760399</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.50453299374485</v>
+        <v>13.07522997716052</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.22087755989639</v>
+        <v>20.60897432937502</v>
       </c>
       <c r="C2">
-        <v>34.5143393627069</v>
+        <v>13.25350830248882</v>
       </c>
       <c r="D2">
-        <v>7.497197441781002</v>
+        <v>7.158302184969482</v>
       </c>
       <c r="E2">
-        <v>31.09857397363442</v>
+        <v>8.955025313925843</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.986673986820892</v>
+        <v>24.92441723629079</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.805038674513873</v>
       </c>
       <c r="I2">
-        <v>30.74695112580364</v>
+        <v>2.770458593598091</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.018102475300903</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.2156082522915</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.15724304973111</v>
+        <v>8.015707298701313</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.2442443907956</v>
+      </c>
+      <c r="Q2">
+        <v>15.22640272956937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.53544857139843</v>
+        <v>19.2410225781095</v>
       </c>
       <c r="C3">
-        <v>31.76426867928879</v>
+        <v>12.68295111351351</v>
       </c>
       <c r="D3">
-        <v>6.915546011972465</v>
+        <v>6.667974988069389</v>
       </c>
       <c r="E3">
-        <v>28.54931761965637</v>
+        <v>8.804101544609868</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.009013030237332</v>
+        <v>23.99185182938215</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.61281635121235</v>
       </c>
       <c r="I3">
-        <v>28.99390384320809</v>
+        <v>2.619457236559634</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.949321846208351</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.20778832719982</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.23753595810316</v>
+        <v>7.709472239545399</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.30716143132431</v>
+      </c>
+      <c r="Q3">
+        <v>14.93687864920794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.83614874576037</v>
+        <v>18.34695789203518</v>
       </c>
       <c r="C4">
-        <v>30.03061145977742</v>
+        <v>12.32012304080111</v>
       </c>
       <c r="D4">
-        <v>6.546970596425035</v>
+        <v>6.34952442042673</v>
       </c>
       <c r="E4">
-        <v>26.95177280108562</v>
+        <v>8.708426255962005</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.022643195440325</v>
+        <v>23.41243772877427</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.632449077519067</v>
       </c>
       <c r="I4">
-        <v>27.93402179854197</v>
+        <v>2.524007810399532</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.910098999130769</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.20749395524975</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.29668285645584</v>
+        <v>7.515283864093266</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.34840390780135</v>
+      </c>
+      <c r="Q4">
+        <v>14.76276933382576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.12969539939849</v>
+        <v>17.96383196713527</v>
       </c>
       <c r="C5">
-        <v>29.31134981271901</v>
+        <v>12.17546402350745</v>
       </c>
       <c r="D5">
-        <v>6.393617702749515</v>
+        <v>6.219268420949796</v>
       </c>
       <c r="E5">
-        <v>26.2908171328972</v>
+        <v>8.667109743880594</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.028196467898249</v>
+        <v>23.16251471241322</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.685014059033671</v>
       </c>
       <c r="I5">
-        <v>27.50560399857212</v>
+        <v>2.485125065802675</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.892793124706818</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.20349619171068</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.32297980545824</v>
+        <v>7.435146168065127</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.36668580695044</v>
+      </c>
+      <c r="Q5">
+        <v>14.68756810933855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.01151204249197</v>
+        <v>17.89313627642798</v>
       </c>
       <c r="C6">
-        <v>29.19110816198101</v>
+        <v>12.1589165761307</v>
       </c>
       <c r="D6">
-        <v>6.367955700816028</v>
+        <v>6.200063752007153</v>
       </c>
       <c r="E6">
-        <v>26.18041848739048</v>
+        <v>8.658276997225741</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.029119046723982</v>
+        <v>23.10572639063263</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.694187952959599</v>
       </c>
       <c r="I6">
-        <v>27.43466254277983</v>
+        <v>2.479714484318516</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.887430111194677</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.19681627796555</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.32747160899875</v>
+        <v>7.42232402633825</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.37078360576098</v>
+      </c>
+      <c r="Q6">
+        <v>14.66874759480616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.826679386446</v>
+        <v>18.32519196597191</v>
       </c>
       <c r="C7">
-        <v>30.02096469881709</v>
+        <v>12.33882435177445</v>
       </c>
       <c r="D7">
-        <v>6.544915537117254</v>
+        <v>6.347670643224227</v>
       </c>
       <c r="E7">
-        <v>26.94290134331283</v>
+        <v>8.702658886614726</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.022718068967048</v>
+        <v>23.36803579588635</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.634162030924806</v>
       </c>
       <c r="I7">
-        <v>27.92823052952167</v>
+        <v>2.526040792131452</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.902962738238774</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.19084349829</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.29702895862855</v>
+        <v>7.515754456555992</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.35151216475209</v>
+      </c>
+      <c r="Q7">
+        <v>14.74439833181441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.30454878799118</v>
+        <v>20.12818716876871</v>
       </c>
       <c r="C8">
-        <v>33.57451130075301</v>
+        <v>13.08555787123489</v>
       </c>
       <c r="D8">
-        <v>7.298834293783088</v>
+        <v>6.992743981865946</v>
       </c>
       <c r="E8">
-        <v>30.22507581290743</v>
+        <v>8.896938674210496</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.994407995340197</v>
+        <v>24.55262186144126</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.738434640410521</v>
       </c>
       <c r="I8">
-        <v>30.13858753342392</v>
+        <v>2.721660162519844</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.98473993230194</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.19010708770405</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.18269756172771</v>
+        <v>7.913419618986207</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.26948004450057</v>
+      </c>
+      <c r="Q8">
+        <v>15.10343464357729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.80005635207155</v>
+        <v>23.2635337314553</v>
       </c>
       <c r="C9">
-        <v>40.27044177857398</v>
+        <v>14.41275143928181</v>
       </c>
       <c r="D9">
-        <v>8.702449433154655</v>
+        <v>8.12111614674264</v>
       </c>
       <c r="E9">
-        <v>36.51292944412018</v>
+        <v>9.262825516858129</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.937011670938743</v>
+        <v>26.87692209672572</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.195650591380976</v>
       </c>
       <c r="I9">
-        <v>34.78284972998743</v>
+        <v>3.081044053803956</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.181404957264792</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.25561645307135</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.05285345608606</v>
+        <v>8.638767779523443</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.12431019466259</v>
+      </c>
+      <c r="Q9">
+        <v>15.86411091836455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.52181386556357</v>
+        <v>25.24689369589903</v>
       </c>
       <c r="C10">
-        <v>45.19177465140831</v>
+        <v>15.38621534192512</v>
       </c>
       <c r="D10">
-        <v>9.718545044671414</v>
+        <v>8.867995654067551</v>
       </c>
       <c r="E10">
-        <v>41.25712124860877</v>
+        <v>9.411544104196292</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.891356647891696</v>
+        <v>28.33755456935287</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.500572129468488</v>
       </c>
       <c r="I10">
-        <v>38.87048982931315</v>
+        <v>3.328714286346362</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.305185262149122</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.24968547379221</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.04584456715685</v>
+        <v>9.002988010986394</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.05079898148382</v>
+      </c>
+      <c r="Q10">
+        <v>16.34951100512353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>46.71229369954259</v>
+        <v>25.58687533564137</v>
       </c>
       <c r="C11">
-        <v>47.49244961410007</v>
+        <v>16.32587575427958</v>
       </c>
       <c r="D11">
-        <v>10.18832334057141</v>
+        <v>9.186308192830223</v>
       </c>
       <c r="E11">
-        <v>43.52326019768384</v>
+        <v>8.764009154723352</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.868977858676182</v>
+        <v>27.44681835707079</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.245557921723576</v>
       </c>
       <c r="I11">
-        <v>40.80714340548436</v>
+        <v>3.399261940822541</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.071391907608945</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.61502935645956</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.07260294263023</v>
+        <v>8.032250252342649</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.19321432667239</v>
+      </c>
+      <c r="Q11">
+        <v>15.867771699566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47.55514707442535</v>
+        <v>25.48785030919824</v>
       </c>
       <c r="C12">
-        <v>48.38096403335844</v>
+        <v>16.90531027308239</v>
       </c>
       <c r="D12">
-        <v>10.36875209435128</v>
+        <v>9.30285570663751</v>
       </c>
       <c r="E12">
-        <v>44.40829607120178</v>
+        <v>8.47224456997494</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.860155631347824</v>
+        <v>26.42065090122275</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.404498805765663</v>
       </c>
       <c r="I12">
-        <v>41.5587810974729</v>
+        <v>3.407385029149156</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.852172252200994</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.10655946667813</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.08844864265669</v>
+        <v>7.169328258532564</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.3388388595322</v>
+      </c>
+      <c r="Q12">
+        <v>15.37055553959019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47.37287307166218</v>
+        <v>25.02326243154329</v>
       </c>
       <c r="C13">
-        <v>48.18865616787404</v>
+        <v>17.28124358331733</v>
       </c>
       <c r="D13">
-        <v>10.32974991684836</v>
+        <v>9.274738818497829</v>
       </c>
       <c r="E13">
-        <v>44.21624197067632</v>
+        <v>8.44867084596058</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.862073635126274</v>
+        <v>25.14376952026809</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.668512786907355</v>
       </c>
       <c r="I13">
-        <v>41.39593433597164</v>
+        <v>3.371200063354694</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.618706824043185</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.64089413863722</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.08475238584513</v>
+        <v>6.342285170829689</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.49527041345298</v>
+      </c>
+      <c r="Q13">
+        <v>14.79791741188963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>46.78131320515261</v>
+        <v>24.52200494299233</v>
       </c>
       <c r="C14">
-        <v>47.56513810549457</v>
+        <v>17.46271613732312</v>
       </c>
       <c r="D14">
-        <v>10.2031056948642</v>
+        <v>9.189277998720367</v>
       </c>
       <c r="E14">
-        <v>43.59544626873312</v>
+        <v>8.593494693109207</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.868259899296548</v>
+        <v>24.11193000494453</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.588927153631165</v>
       </c>
       <c r="I14">
-        <v>40.86856043959346</v>
+        <v>3.326909143717727</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.446987384099227</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.33513021999883</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.07378171326279</v>
+        <v>5.799912427672957</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.61070902568682</v>
+      </c>
+      <c r="Q14">
+        <v>14.35571066277114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.4209827415052</v>
+        <v>24.31457128978613</v>
       </c>
       <c r="C15">
-        <v>47.18578868103238</v>
+        <v>17.47010896891269</v>
       </c>
       <c r="D15">
-        <v>10.12591729680957</v>
+        <v>9.137197434128359</v>
       </c>
       <c r="E15">
-        <v>43.21913437446903</v>
+        <v>8.644641666592117</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.871999420550527</v>
+        <v>23.79327667068047</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.798786931044387</v>
       </c>
       <c r="I15">
-        <v>40.5481832853476</v>
+        <v>3.30735085703051</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.400627144819405</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.26548093233441</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.0678583791357</v>
+        <v>5.672276937668079</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.64046817705145</v>
+      </c>
+      <c r="Q15">
+        <v>14.22730419201203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44.38006136427733</v>
+        <v>23.55395029479023</v>
       </c>
       <c r="C16">
-        <v>45.04329610255389</v>
+        <v>17.02545645008181</v>
       </c>
       <c r="D16">
-        <v>9.688105065110229</v>
+        <v>8.836029859997041</v>
       </c>
       <c r="E16">
-        <v>41.11204266314464</v>
+        <v>8.571588779882024</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.892778024256452</v>
+        <v>23.32969425208907</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.530828375595578</v>
       </c>
       <c r="I16">
-        <v>38.74601401418698</v>
+        <v>3.210567858406361</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.386664366946686</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.35633142480724</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.04480538282662</v>
+        <v>5.653680885326295</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.6279647787216</v>
+      </c>
+      <c r="Q16">
+        <v>14.10548443479946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.14310051821518</v>
+        <v>23.23762622903691</v>
       </c>
       <c r="C17">
-        <v>43.74964375983085</v>
+        <v>16.57729869923252</v>
       </c>
       <c r="D17">
-        <v>9.422296430519292</v>
+        <v>8.647623717712936</v>
       </c>
       <c r="E17">
-        <v>39.85352976591818</v>
+        <v>8.411107326831193</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.905045597031535</v>
+        <v>23.54406639499186</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.787902448613854</v>
       </c>
       <c r="I17">
-        <v>37.66431160350051</v>
+        <v>3.159886163046181</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.468419478803325</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.58538310155967</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.03916085491265</v>
+        <v>5.921078103712247</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.55883551650296</v>
+      </c>
+      <c r="Q17">
+        <v>14.25279299095655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42.43506409408901</v>
+        <v>23.29189258159213</v>
       </c>
       <c r="C18">
-        <v>43.01073513382931</v>
+        <v>16.0671581768793</v>
       </c>
       <c r="D18">
-        <v>9.270007387958032</v>
+        <v>8.538911005728165</v>
       </c>
       <c r="E18">
-        <v>39.13892222895907</v>
+        <v>8.308702089715425</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.911959227191639</v>
+        <v>24.39012036485775</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.594121095921252</v>
       </c>
       <c r="I18">
-        <v>37.04883618813369</v>
+        <v>3.142031763148708</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.644836235807015</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.97580209924913</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.0386236730557</v>
+        <v>6.517879853377545</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.43501051936529</v>
+      </c>
+      <c r="Q18">
+        <v>14.65667271125804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>42.19575419733623</v>
+        <v>23.61486946050091</v>
       </c>
       <c r="C19">
-        <v>42.76124423003566</v>
+        <v>15.59399807573954</v>
       </c>
       <c r="D19">
-        <v>9.218513236641252</v>
+        <v>8.503732467807765</v>
       </c>
       <c r="E19">
-        <v>38.89829651584794</v>
+        <v>8.489261047074747</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.914278338518909</v>
+        <v>25.59749086519037</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.287259886728837</v>
       </c>
       <c r="I19">
-        <v>36.84142946852592</v>
+        <v>3.161975322702585</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.871240377418076</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.45181810263312</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.03887330687736</v>
+        <v>7.39083238560512</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.29320368909974</v>
+      </c>
+      <c r="Q19">
+        <v>15.20256069872187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.27437995426882</v>
+        <v>24.7000724700314</v>
       </c>
       <c r="C20">
-        <v>43.88677199902256</v>
+        <v>15.19322643374331</v>
       </c>
       <c r="D20">
-        <v>9.450521960263865</v>
+        <v>8.677061866041488</v>
       </c>
       <c r="E20">
-        <v>39.98647779151276</v>
+        <v>9.354228622675597</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.90375510005209</v>
+        <v>27.84161780744159</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.417443818257028</v>
       </c>
       <c r="I20">
-        <v>37.7787268798246</v>
+        <v>3.272488411317735</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.249781717982025</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.19597660405794</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.03947297325003</v>
+        <v>8.907172517233294</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.0809760847116</v>
+      </c>
+      <c r="Q20">
+        <v>16.1685135610235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46.95462982191268</v>
+        <v>26.2421485129141</v>
       </c>
       <c r="C21">
-        <v>47.74772269418918</v>
+        <v>15.81857514320156</v>
       </c>
       <c r="D21">
-        <v>10.24022030765574</v>
+        <v>9.2256124104227</v>
       </c>
       <c r="E21">
-        <v>43.77693750497959</v>
+        <v>9.626975536312758</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.866453507854086</v>
+        <v>29.23733965863581</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.664232583591642</v>
       </c>
       <c r="I21">
-        <v>41.02289123824419</v>
+        <v>3.465359512140575</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.404589686323826</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.32130778056122</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.07683458534648</v>
+        <v>9.382999352058738</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.00052896126451</v>
+      </c>
+      <c r="Q21">
+        <v>16.67764442449076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.44438649625454</v>
+        <v>27.18975265980707</v>
       </c>
       <c r="C22">
-        <v>50.37957775724149</v>
+        <v>16.2220325457402</v>
       </c>
       <c r="D22">
-        <v>10.77239996823139</v>
+        <v>9.569649664824681</v>
       </c>
       <c r="E22">
-        <v>46.42177464760247</v>
+        <v>9.755556261966209</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.839940933855915</v>
+        <v>30.0882247517407</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.816800852236965</v>
       </c>
       <c r="I22">
-        <v>43.25624467507544</v>
+        <v>3.583530332668094</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.500216773263546</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.3929834222806</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.1357660279335</v>
+        <v>9.615947257878291</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.95469278867037</v>
+      </c>
+      <c r="Q22">
+        <v>16.99098192889879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48.10432158430363</v>
+        <v>26.70233784156408</v>
       </c>
       <c r="C23">
-        <v>48.96091108543004</v>
+        <v>15.98792837683907</v>
       </c>
       <c r="D23">
-        <v>10.48620270500639</v>
+        <v>9.387420982211678</v>
       </c>
       <c r="E23">
-        <v>44.98920674233381</v>
+        <v>9.692501176187692</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.854342791294763</v>
+        <v>29.67420806091763</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.73657662012094</v>
       </c>
       <c r="I23">
-        <v>42.05041317087092</v>
+        <v>3.517526740284791</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.456516092241394</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.37318740214064</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.10049720135247</v>
+        <v>9.49072102996292</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.97446738519607</v>
+      </c>
+      <c r="Q23">
+        <v>16.84162551894237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>43.2150193279463</v>
+        <v>24.74343892505763</v>
       </c>
       <c r="C24">
-        <v>43.82476184630528</v>
+        <v>15.1063714329875</v>
       </c>
       <c r="D24">
-        <v>9.437759652255776</v>
+        <v>8.668352208147638</v>
       </c>
       <c r="E24">
-        <v>39.92634494047119</v>
+        <v>9.440202752251681</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.904338959335967</v>
+        <v>28.01981907280805</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.424789767800721</v>
       </c>
       <c r="I24">
-        <v>37.72698025164561</v>
+        <v>3.268069754613121</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.284984493659859</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.27966665543111</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.03932352616967</v>
+        <v>9.004625905728309</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.06209705079518</v>
+      </c>
+      <c r="Q24">
+        <v>16.25131987470088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.0651376584673</v>
+        <v>22.43561048981756</v>
       </c>
       <c r="C25">
-        <v>38.47406358808302</v>
+        <v>14.0986568153412</v>
       </c>
       <c r="D25">
-        <v>8.328141362922437</v>
+        <v>7.830198146130806</v>
       </c>
       <c r="E25">
-        <v>34.80989208867458</v>
+        <v>9.157707591941373</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.95293758262377</v>
+        <v>26.19086449158386</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.073958779962266</v>
       </c>
       <c r="I25">
-        <v>33.4036890760399</v>
+        <v>2.990317387415298</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.113498001954044</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.2040673785361</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.07522997716052</v>
+        <v>8.451045245699001</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.16730922904376</v>
+      </c>
+      <c r="Q25">
+        <v>15.62634345665193</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.60897432937502</v>
+        <v>20.31536609765545</v>
       </c>
       <c r="C2">
-        <v>13.25350830248882</v>
+        <v>13.44745442198528</v>
       </c>
       <c r="D2">
-        <v>7.158302184969482</v>
+        <v>7.157449629857463</v>
       </c>
       <c r="E2">
-        <v>8.955025313925843</v>
+        <v>8.780117170213982</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.92441723629079</v>
+        <v>23.50516231788859</v>
       </c>
       <c r="H2">
-        <v>1.805038674513873</v>
+        <v>1.820613757673308</v>
       </c>
       <c r="I2">
-        <v>2.770458593598091</v>
+        <v>2.797740893115495</v>
       </c>
       <c r="J2">
-        <v>9.018102475300903</v>
+        <v>9.428223888988006</v>
       </c>
       <c r="K2">
-        <v>14.2156082522915</v>
+        <v>13.77916908512574</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.09618362751734</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.348436576501248</v>
       </c>
       <c r="N2">
-        <v>8.015707298701313</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.2442443907956</v>
+        <v>8.080996098535712</v>
       </c>
       <c r="Q2">
-        <v>15.22640272956937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.27830363975768</v>
+      </c>
+      <c r="S2">
+        <v>14.86793748258383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.2410225781095</v>
+        <v>18.9983045400016</v>
       </c>
       <c r="C3">
-        <v>12.68295111351351</v>
+        <v>12.78989110706686</v>
       </c>
       <c r="D3">
-        <v>6.667974988069389</v>
+        <v>6.668111902525918</v>
       </c>
       <c r="E3">
-        <v>8.804101544609868</v>
+        <v>8.650132784397975</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.99185182938215</v>
+        <v>22.66343856753543</v>
       </c>
       <c r="H3">
-        <v>1.61281635121235</v>
+        <v>1.641711578500429</v>
       </c>
       <c r="I3">
-        <v>2.619457236559634</v>
+        <v>2.662515348699432</v>
       </c>
       <c r="J3">
-        <v>8.949321846208351</v>
+        <v>9.350867532458002</v>
       </c>
       <c r="K3">
-        <v>14.20778832719982</v>
+        <v>13.80845823440053</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.22212462121736</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.26562202564042</v>
       </c>
       <c r="N3">
-        <v>7.709472239545399</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.30716143132431</v>
+        <v>7.776690118475864</v>
       </c>
       <c r="Q3">
-        <v>14.93687864920794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.31525519338917</v>
+      </c>
+      <c r="S3">
+        <v>14.62240437390113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.34695789203518</v>
+        <v>18.13722265191445</v>
       </c>
       <c r="C4">
-        <v>12.32012304080111</v>
+        <v>12.37112354785005</v>
       </c>
       <c r="D4">
-        <v>6.34952442042673</v>
+        <v>6.3502101250568</v>
       </c>
       <c r="E4">
-        <v>8.708426255962005</v>
+        <v>8.567553755152787</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.41243772877427</v>
+        <v>22.14224980390751</v>
       </c>
       <c r="H4">
-        <v>1.632449077519067</v>
+        <v>1.594210899450428</v>
       </c>
       <c r="I4">
-        <v>2.524007810399532</v>
+        <v>2.57715564155171</v>
       </c>
       <c r="J4">
-        <v>8.910098999130769</v>
+        <v>9.30408037870242</v>
       </c>
       <c r="K4">
-        <v>14.20749395524975</v>
+        <v>13.82962069926084</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.30039040676924</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.236490605172882</v>
       </c>
       <c r="N4">
-        <v>7.515283864093266</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.34840390780135</v>
+        <v>7.583987884143599</v>
       </c>
       <c r="Q4">
-        <v>14.76276933382576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.34096102706165</v>
+      </c>
+      <c r="S4">
+        <v>14.47446290915916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.96383196713527</v>
+        <v>17.76798671573547</v>
       </c>
       <c r="C5">
-        <v>12.17546402350745</v>
+        <v>12.20346815075751</v>
       </c>
       <c r="D5">
-        <v>6.219268420949796</v>
+        <v>6.219908052048207</v>
       </c>
       <c r="E5">
-        <v>8.667109743880594</v>
+        <v>8.531675701733988</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.16251471241322</v>
+        <v>21.91641443861938</v>
       </c>
       <c r="H5">
-        <v>1.685014059033671</v>
+        <v>1.643187508158855</v>
       </c>
       <c r="I5">
-        <v>2.485125065802675</v>
+        <v>2.542764630005795</v>
       </c>
       <c r="J5">
-        <v>8.892793124706818</v>
+        <v>9.283166229444276</v>
       </c>
       <c r="K5">
-        <v>14.20349619171068</v>
+        <v>13.83418617154744</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.32821191450631</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.227170424070248</v>
       </c>
       <c r="N5">
-        <v>7.435146168065127</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.36668580695044</v>
+        <v>7.504539457035013</v>
       </c>
       <c r="Q5">
-        <v>14.68756810933855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.35310298955883</v>
+      </c>
+      <c r="S5">
+        <v>14.40972908526585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.89313627642798</v>
+        <v>17.69963014680651</v>
       </c>
       <c r="C6">
-        <v>12.1589165761307</v>
+        <v>12.18355296593972</v>
       </c>
       <c r="D6">
-        <v>6.200063752007153</v>
+        <v>6.200726365173884</v>
       </c>
       <c r="E6">
-        <v>8.658276997225741</v>
+        <v>8.523804878489615</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.10572639063263</v>
+        <v>21.8634260271423</v>
       </c>
       <c r="H6">
-        <v>1.694187952959599</v>
+        <v>1.6517515480298</v>
       </c>
       <c r="I6">
-        <v>2.479714484318516</v>
+        <v>2.538485132032222</v>
       </c>
       <c r="J6">
-        <v>8.887430111194677</v>
+        <v>9.277219716949633</v>
       </c>
       <c r="K6">
-        <v>14.19681627796555</v>
+        <v>13.82909280265152</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.3275843979679</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.222341379119873</v>
       </c>
       <c r="N6">
-        <v>7.42232402633825</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.37078360576098</v>
+        <v>7.491840000620213</v>
       </c>
       <c r="Q6">
-        <v>14.66874759480616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.35629950535685</v>
+      </c>
+      <c r="S6">
+        <v>14.39268027774024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.32519196597191</v>
+        <v>18.10936718367167</v>
       </c>
       <c r="C7">
-        <v>12.33882435177445</v>
+        <v>12.38290495013131</v>
       </c>
       <c r="D7">
-        <v>6.347670643224227</v>
+        <v>6.348311917098045</v>
       </c>
       <c r="E7">
-        <v>8.702658886614726</v>
+        <v>8.562654964200199</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.36803579588635</v>
+        <v>22.19394263823184</v>
       </c>
       <c r="H7">
-        <v>1.634162030924806</v>
+        <v>1.596360366878859</v>
       </c>
       <c r="I7">
-        <v>2.526040792131452</v>
+        <v>2.579711327949679</v>
       </c>
       <c r="J7">
-        <v>8.902962738238774</v>
+        <v>9.253015343447249</v>
       </c>
       <c r="K7">
-        <v>14.19084349829</v>
+        <v>13.80775462053211</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.28155989432482</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.222347520590816</v>
       </c>
       <c r="N7">
-        <v>7.515754456555992</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.35151216475209</v>
+        <v>7.583607806589305</v>
       </c>
       <c r="Q7">
-        <v>14.74439833181441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.34556118487146</v>
+      </c>
+      <c r="S7">
+        <v>14.44489286590915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.12818716876871</v>
+        <v>19.83253837492506</v>
       </c>
       <c r="C8">
-        <v>13.08555787123489</v>
+        <v>13.2267279301994</v>
       </c>
       <c r="D8">
-        <v>6.992743981865946</v>
+        <v>6.99207928651226</v>
       </c>
       <c r="E8">
-        <v>8.896938674210496</v>
+        <v>8.731635786993989</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.55262186144126</v>
+        <v>23.47034384935978</v>
       </c>
       <c r="H8">
-        <v>1.738434640410521</v>
+        <v>1.757040598229413</v>
       </c>
       <c r="I8">
-        <v>2.721660162519844</v>
+        <v>2.753918237963771</v>
       </c>
       <c r="J8">
-        <v>8.98473993230194</v>
+        <v>9.249155731705212</v>
       </c>
       <c r="K8">
-        <v>14.19010708770405</v>
+        <v>13.748287985642</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.10657972302088</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.286239017853138</v>
       </c>
       <c r="N8">
-        <v>7.913419618986207</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.26948004450057</v>
+        <v>7.976602586398678</v>
       </c>
       <c r="Q8">
-        <v>15.10343464357729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.29948007488613</v>
+      </c>
+      <c r="S8">
+        <v>14.72319737954813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.2635337314553</v>
+        <v>22.84780289508435</v>
       </c>
       <c r="C9">
-        <v>14.41275143928181</v>
+        <v>14.75025495862621</v>
       </c>
       <c r="D9">
-        <v>8.12111614674264</v>
+        <v>8.117544595427407</v>
       </c>
       <c r="E9">
-        <v>9.262825516858129</v>
+        <v>9.047257305994574</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.87692209672572</v>
+        <v>25.63845233980692</v>
       </c>
       <c r="H9">
-        <v>2.195650591380976</v>
+        <v>2.181989241823167</v>
       </c>
       <c r="I9">
-        <v>3.081044053803956</v>
+        <v>3.074748374735096</v>
       </c>
       <c r="J9">
-        <v>9.181404957264792</v>
+        <v>9.417571283014702</v>
       </c>
       <c r="K9">
-        <v>14.25561645307135</v>
+        <v>13.70807485762839</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.81195980769832</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.615323082894209</v>
       </c>
       <c r="N9">
-        <v>8.638767779523443</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.12431019466259</v>
+        <v>8.698137490727833</v>
       </c>
       <c r="Q9">
-        <v>15.86411091836455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.2229104463149</v>
+      </c>
+      <c r="S9">
+        <v>15.36193627414185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.24689369589903</v>
+        <v>24.72830453003313</v>
       </c>
       <c r="C10">
-        <v>15.38621534192512</v>
+        <v>15.81201178486896</v>
       </c>
       <c r="D10">
-        <v>8.867995654067551</v>
+        <v>8.861632798035947</v>
       </c>
       <c r="E10">
-        <v>9.411544104196292</v>
+        <v>9.170917583222012</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.33755456935287</v>
+        <v>27.48191526589305</v>
       </c>
       <c r="H10">
-        <v>2.500572129468488</v>
+        <v>2.462583068224983</v>
       </c>
       <c r="I10">
-        <v>3.328714286346362</v>
+        <v>3.29469674357787</v>
       </c>
       <c r="J10">
-        <v>9.305185262149122</v>
+        <v>9.275786302558915</v>
       </c>
       <c r="K10">
-        <v>14.24968547379221</v>
+        <v>13.59528513528009</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.53060405178009</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.863416425448413</v>
       </c>
       <c r="N10">
-        <v>9.002988010986394</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.05079898148382</v>
+        <v>9.055747418377145</v>
       </c>
       <c r="Q10">
-        <v>16.34951100512353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.21177486971792</v>
+      </c>
+      <c r="S10">
+        <v>15.70236752678125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.58687533564137</v>
+        <v>25.02178423374727</v>
       </c>
       <c r="C11">
-        <v>16.32587575427958</v>
+        <v>16.68076066158715</v>
       </c>
       <c r="D11">
-        <v>9.186308192830223</v>
+        <v>9.1785133782284</v>
       </c>
       <c r="E11">
-        <v>8.764009154723352</v>
+        <v>8.571710285826381</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.44681835707079</v>
+        <v>27.68105784599191</v>
       </c>
       <c r="H11">
-        <v>3.245557921723576</v>
+        <v>3.208871246208938</v>
       </c>
       <c r="I11">
-        <v>3.399261940822541</v>
+        <v>3.356132640968958</v>
       </c>
       <c r="J11">
-        <v>9.071391907608945</v>
+        <v>8.592948951762287</v>
       </c>
       <c r="K11">
-        <v>13.61502935645956</v>
+        <v>12.94886657866512</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.01515801670647</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.456533806074319</v>
       </c>
       <c r="N11">
-        <v>8.032250252342649</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.19321432667239</v>
+        <v>8.068458608949019</v>
       </c>
       <c r="Q11">
-        <v>15.867771699566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.40362955697913</v>
+      </c>
+      <c r="S11">
+        <v>15.11601164082439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.48785030919824</v>
+        <v>24.92156112321211</v>
       </c>
       <c r="C12">
-        <v>16.90531027308239</v>
+        <v>17.19910288421545</v>
       </c>
       <c r="D12">
-        <v>9.30285570663751</v>
+        <v>9.29464102499411</v>
       </c>
       <c r="E12">
-        <v>8.47224456997494</v>
+        <v>8.321301332168318</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.42065090122275</v>
+        <v>27.21195896921422</v>
       </c>
       <c r="H12">
-        <v>4.404498805765663</v>
+        <v>4.376626119084897</v>
       </c>
       <c r="I12">
-        <v>3.407385029149156</v>
+        <v>3.361651833978274</v>
       </c>
       <c r="J12">
-        <v>8.852172252200994</v>
+        <v>8.216081819133155</v>
       </c>
       <c r="K12">
-        <v>13.10655946667813</v>
+        <v>12.47761638252946</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.68639551983739</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.087862033375833</v>
       </c>
       <c r="N12">
-        <v>7.169328258532564</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.3388388595322</v>
+        <v>7.19474420727237</v>
       </c>
       <c r="Q12">
-        <v>15.37055553959019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.57010962783064</v>
+      </c>
+      <c r="S12">
+        <v>14.60019833037217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.02326243154329</v>
+        <v>24.50270407880338</v>
       </c>
       <c r="C13">
-        <v>17.28124358331733</v>
+        <v>17.53735288264373</v>
       </c>
       <c r="D13">
-        <v>9.274738818497829</v>
+        <v>9.267013905391529</v>
       </c>
       <c r="E13">
-        <v>8.44867084596058</v>
+        <v>8.338603498626071</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.14376952026809</v>
+        <v>25.91333330788819</v>
       </c>
       <c r="H13">
-        <v>5.668512786907355</v>
+        <v>5.649166165485191</v>
       </c>
       <c r="I13">
-        <v>3.371200063354694</v>
+        <v>3.330056379139366</v>
       </c>
       <c r="J13">
-        <v>8.618706824043185</v>
+        <v>8.097705769261383</v>
       </c>
       <c r="K13">
-        <v>12.64089413863722</v>
+        <v>12.09964110124495</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.45790969423754</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.720975687862543</v>
       </c>
       <c r="N13">
-        <v>6.342285170829689</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.49527041345298</v>
+        <v>6.362166530547881</v>
       </c>
       <c r="Q13">
-        <v>14.79791741188963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.71973967017883</v>
+      </c>
+      <c r="S13">
+        <v>14.10077571197604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.52200494299233</v>
+        <v>24.05486277308131</v>
       </c>
       <c r="C14">
-        <v>17.46271613732312</v>
+        <v>17.70280973386194</v>
       </c>
       <c r="D14">
-        <v>9.189277998720367</v>
+        <v>9.182291035379571</v>
       </c>
       <c r="E14">
-        <v>8.593494693109207</v>
+        <v>8.512705553663029</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.11193000494453</v>
+        <v>24.61154505618637</v>
       </c>
       <c r="H14">
-        <v>6.588927153631165</v>
+        <v>6.574693277565208</v>
       </c>
       <c r="I14">
-        <v>3.326909143717727</v>
+        <v>3.292496233980687</v>
       </c>
       <c r="J14">
-        <v>8.446987384099227</v>
+        <v>8.116015427231504</v>
       </c>
       <c r="K14">
-        <v>12.33513021999883</v>
+        <v>11.8742073063796</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.33607087310559</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.465991430917161</v>
       </c>
       <c r="N14">
-        <v>5.799912427672957</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.61070902568682</v>
+        <v>5.818046803717122</v>
       </c>
       <c r="Q14">
-        <v>14.35571066277114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.81716446240701</v>
+      </c>
+      <c r="S14">
+        <v>13.74975376731408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.31457128978613</v>
+        <v>23.86979397989087</v>
       </c>
       <c r="C15">
-        <v>17.47010896891269</v>
+        <v>17.71106286336071</v>
       </c>
       <c r="D15">
-        <v>9.137197434128359</v>
+        <v>9.130574771254414</v>
       </c>
       <c r="E15">
-        <v>8.644641666592117</v>
+        <v>8.572219821423552</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.79327667068047</v>
+        <v>24.11802914762536</v>
       </c>
       <c r="H15">
-        <v>6.798786931044387</v>
+        <v>6.786079765413631</v>
       </c>
       <c r="I15">
-        <v>3.30735085703051</v>
+        <v>3.276605007686393</v>
       </c>
       <c r="J15">
-        <v>8.400627144819405</v>
+        <v>8.163002870318106</v>
       </c>
       <c r="K15">
-        <v>12.26548093233441</v>
+        <v>11.83214380017123</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.31952083936452</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.401635114818252</v>
       </c>
       <c r="N15">
-        <v>5.672276937668079</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.64046817705145</v>
+        <v>5.691048183354773</v>
       </c>
       <c r="Q15">
-        <v>14.22730419201203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.8371316207952</v>
+      </c>
+      <c r="S15">
+        <v>13.66052676791853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.55395029479023</v>
+        <v>23.18870468156407</v>
       </c>
       <c r="C16">
-        <v>17.02545645008181</v>
+        <v>17.30080649914353</v>
       </c>
       <c r="D16">
-        <v>8.836029859997041</v>
+        <v>8.83105863561914</v>
       </c>
       <c r="E16">
-        <v>8.571588779882024</v>
+        <v>8.51015332314061</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.32969425208907</v>
+        <v>22.75920911814755</v>
       </c>
       <c r="H16">
-        <v>6.530828375595578</v>
+        <v>6.522583523042464</v>
       </c>
       <c r="I16">
-        <v>3.210567858406361</v>
+        <v>3.19480287375025</v>
       </c>
       <c r="J16">
-        <v>8.386664366946686</v>
+        <v>8.549235042559538</v>
       </c>
       <c r="K16">
-        <v>12.35633142480724</v>
+        <v>11.98834447101784</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.46922001450037</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.41618257918056</v>
       </c>
       <c r="N16">
-        <v>5.653680885326295</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.6279647787216</v>
+        <v>5.682430565400544</v>
       </c>
       <c r="Q16">
-        <v>14.10548443479946</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.7788279700546</v>
+      </c>
+      <c r="S16">
+        <v>13.67892192142263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.23762622903691</v>
+        <v>22.89702127000455</v>
       </c>
       <c r="C17">
-        <v>16.57729869923252</v>
+        <v>16.87636762648919</v>
       </c>
       <c r="D17">
-        <v>8.647623717712936</v>
+        <v>8.64342601802934</v>
       </c>
       <c r="E17">
-        <v>8.411107326831193</v>
+        <v>8.338413031451489</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.54406639499186</v>
+        <v>22.5596702948497</v>
       </c>
       <c r="H17">
-        <v>5.787902448613854</v>
+        <v>5.781169710807311</v>
       </c>
       <c r="I17">
-        <v>3.159886163046181</v>
+        <v>3.151586694518464</v>
       </c>
       <c r="J17">
-        <v>8.468419478803325</v>
+        <v>8.795139742116731</v>
       </c>
       <c r="K17">
-        <v>12.58538310155967</v>
+        <v>12.22156050753309</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.65416238275824</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.552441786054303</v>
       </c>
       <c r="N17">
-        <v>5.921078103712247</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.55883551650296</v>
+        <v>5.957782795944155</v>
       </c>
       <c r="Q17">
-        <v>14.25279299095655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.68903503583321</v>
+      </c>
+      <c r="S17">
+        <v>13.86957666473286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.29189258159213</v>
+        <v>22.94092548916908</v>
       </c>
       <c r="C18">
-        <v>16.0671581768793</v>
+        <v>16.39629574979826</v>
       </c>
       <c r="D18">
-        <v>8.538911005728165</v>
+        <v>8.534953985296317</v>
       </c>
       <c r="E18">
-        <v>8.308702089715425</v>
+        <v>8.20234130265902</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.39012036485775</v>
+        <v>23.18108950182677</v>
       </c>
       <c r="H18">
-        <v>4.594121095921252</v>
+        <v>4.586497206310545</v>
       </c>
       <c r="I18">
-        <v>3.142031763148708</v>
+        <v>3.13487812209713</v>
       </c>
       <c r="J18">
-        <v>8.644836235807015</v>
+        <v>9.02297546399174</v>
       </c>
       <c r="K18">
-        <v>12.97580209924913</v>
+        <v>12.57506528588714</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.91326806912375</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.822827730149444</v>
       </c>
       <c r="N18">
-        <v>6.517879853377545</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.43501051936529</v>
+        <v>6.562297252427716</v>
       </c>
       <c r="Q18">
-        <v>14.65667271125804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.55739791260032</v>
+      </c>
+      <c r="S18">
+        <v>14.2620620036551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.61486946050091</v>
+        <v>23.2308589853085</v>
       </c>
       <c r="C19">
-        <v>15.59399807573954</v>
+        <v>15.961459261933</v>
       </c>
       <c r="D19">
-        <v>8.503732467807765</v>
+        <v>8.499616724330799</v>
       </c>
       <c r="E19">
-        <v>8.489261047074747</v>
+        <v>8.333082804618716</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.59749086519037</v>
+        <v>24.25592714785853</v>
       </c>
       <c r="H19">
-        <v>3.287259886728837</v>
+        <v>3.275102556565516</v>
       </c>
       <c r="I19">
-        <v>3.161975322702585</v>
+        <v>3.153242010363565</v>
       </c>
       <c r="J19">
-        <v>8.871240377418076</v>
+        <v>9.239812322474194</v>
       </c>
       <c r="K19">
-        <v>13.45181810263312</v>
+        <v>12.98846482519957</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.20595664649325</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.167857079656484</v>
       </c>
       <c r="N19">
-        <v>7.39083238560512</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.29320368909974</v>
+        <v>7.442199793789829</v>
       </c>
       <c r="Q19">
-        <v>15.20256069872187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.41543225746607</v>
+      </c>
+      <c r="S19">
+        <v>14.76369663829447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.7000724700314</v>
+        <v>24.2254035757351</v>
       </c>
       <c r="C20">
-        <v>15.19322643374331</v>
+        <v>15.6228297387472</v>
       </c>
       <c r="D20">
-        <v>8.677061866041488</v>
+        <v>8.671674002571599</v>
       </c>
       <c r="E20">
-        <v>9.354228622675597</v>
+        <v>9.11853736775922</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.84161780744159</v>
+        <v>26.59303981554702</v>
       </c>
       <c r="H20">
-        <v>2.417443818257028</v>
+        <v>2.387296858832076</v>
       </c>
       <c r="I20">
-        <v>3.272488411317735</v>
+        <v>3.250488663524621</v>
       </c>
       <c r="J20">
-        <v>9.249781717982025</v>
+        <v>9.439067337871233</v>
       </c>
       <c r="K20">
-        <v>14.19597660405794</v>
+        <v>13.59348391092031</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.58277261630413</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.767240894533275</v>
       </c>
       <c r="N20">
-        <v>8.907172517233294</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.0809760847116</v>
+        <v>8.964179720687056</v>
       </c>
       <c r="Q20">
-        <v>16.1685135610235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.2210080395882</v>
+      </c>
+      <c r="S20">
+        <v>15.59817087490135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.2421485129141</v>
+        <v>25.59564257060376</v>
       </c>
       <c r="C21">
-        <v>15.81857514320156</v>
+        <v>16.19865968843856</v>
       </c>
       <c r="D21">
-        <v>9.2256124104227</v>
+        <v>9.216831558421651</v>
       </c>
       <c r="E21">
-        <v>9.626975536312758</v>
+        <v>9.377172771043332</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.23733965863581</v>
+        <v>29.77097241560177</v>
       </c>
       <c r="H21">
-        <v>2.664232583591642</v>
+        <v>2.607659677559929</v>
       </c>
       <c r="I21">
-        <v>3.465359512140575</v>
+        <v>3.413830332835614</v>
       </c>
       <c r="J21">
-        <v>9.404589686323826</v>
+        <v>8.645111465256274</v>
       </c>
       <c r="K21">
-        <v>14.32130778056122</v>
+        <v>13.51071690022399</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.37210631361715</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.978042976096072</v>
       </c>
       <c r="N21">
-        <v>9.382999352058738</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.00052896126451</v>
+        <v>9.423298386271194</v>
       </c>
       <c r="Q21">
-        <v>16.67764442449076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.21995941557567</v>
+      </c>
+      <c r="S21">
+        <v>15.78734337508092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.18975265980707</v>
+        <v>26.43219685216255</v>
       </c>
       <c r="C22">
-        <v>16.2220325457402</v>
+        <v>16.5598662304871</v>
       </c>
       <c r="D22">
-        <v>9.569649664824681</v>
+        <v>9.558524112139342</v>
       </c>
       <c r="E22">
-        <v>9.755556261966209</v>
+        <v>9.502578833220813</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.0882247517407</v>
+        <v>31.86771740587086</v>
       </c>
       <c r="H22">
-        <v>2.816800852236965</v>
+        <v>2.743498634409513</v>
       </c>
       <c r="I22">
-        <v>3.583530332668094</v>
+        <v>3.512011404469865</v>
       </c>
       <c r="J22">
-        <v>9.500216773263546</v>
+        <v>8.115854258751662</v>
       </c>
       <c r="K22">
-        <v>14.3929834222806</v>
+        <v>13.43905546457026</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.22388778833561</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.109414084906744</v>
       </c>
       <c r="N22">
-        <v>9.615947257878291</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.95469278867037</v>
+        <v>9.644546711900679</v>
       </c>
       <c r="Q22">
-        <v>16.99098192889879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.23016201383064</v>
+      </c>
+      <c r="S22">
+        <v>15.88139397914224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.70233784156408</v>
+        <v>26.01566922050394</v>
       </c>
       <c r="C23">
-        <v>15.98792837683907</v>
+        <v>16.36359446447226</v>
       </c>
       <c r="D23">
-        <v>9.387420982211678</v>
+        <v>9.377679909358569</v>
       </c>
       <c r="E23">
-        <v>9.692501176187692</v>
+        <v>9.438658186397614</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.67420806091763</v>
+        <v>30.58238487189196</v>
       </c>
       <c r="H23">
-        <v>2.73657662012094</v>
+        <v>2.672998013939728</v>
       </c>
       <c r="I23">
-        <v>3.517526740284791</v>
+        <v>3.456199727339968</v>
       </c>
       <c r="J23">
-        <v>9.456516092241394</v>
+        <v>8.492998149907701</v>
       </c>
       <c r="K23">
-        <v>14.37318740214064</v>
+        <v>13.50992925072463</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.32378358755102</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.067612545400452</v>
       </c>
       <c r="N23">
-        <v>9.49072102996292</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.97446738519607</v>
+        <v>9.527290953333056</v>
       </c>
       <c r="Q23">
-        <v>16.84162551894237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.2147143452404</v>
+      </c>
+      <c r="S23">
+        <v>15.87621388230049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.74343892505763</v>
+        <v>24.26649398924697</v>
       </c>
       <c r="C24">
-        <v>15.1063714329875</v>
+        <v>15.53763999249366</v>
       </c>
       <c r="D24">
-        <v>8.668352208147638</v>
+        <v>8.662957561219393</v>
       </c>
       <c r="E24">
-        <v>9.440202752251681</v>
+        <v>9.199451784908351</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.01981907280805</v>
+        <v>26.74686977728325</v>
       </c>
       <c r="H24">
-        <v>2.424789767800721</v>
+        <v>2.394445079295782</v>
       </c>
       <c r="I24">
-        <v>3.268069754613121</v>
+        <v>3.243857538257112</v>
       </c>
       <c r="J24">
-        <v>9.284984493659859</v>
+        <v>9.478388341033989</v>
       </c>
       <c r="K24">
-        <v>14.27966665543111</v>
+        <v>13.67000555822196</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.63808439120853</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.828698511228946</v>
       </c>
       <c r="N24">
-        <v>9.004625905728309</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.06209705079518</v>
+        <v>9.062337938388779</v>
       </c>
       <c r="Q24">
-        <v>16.25131987470088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.20018889078402</v>
+      </c>
+      <c r="S24">
+        <v>15.67801944325947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.43561048981756</v>
+        <v>22.05849472867176</v>
       </c>
       <c r="C25">
-        <v>14.0986568153412</v>
+        <v>14.39730335124719</v>
       </c>
       <c r="D25">
-        <v>7.830198146130806</v>
+        <v>7.827558183463104</v>
       </c>
       <c r="E25">
-        <v>9.157707591941373</v>
+        <v>8.95485346657132</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.19086449158386</v>
+        <v>24.86789604782518</v>
       </c>
       <c r="H25">
-        <v>2.073958779962266</v>
+        <v>2.069515159825309</v>
       </c>
       <c r="I25">
-        <v>2.990317387415298</v>
+        <v>2.996564472109071</v>
       </c>
       <c r="J25">
-        <v>9.113498001954044</v>
+        <v>9.420234895191964</v>
       </c>
       <c r="K25">
-        <v>14.2040673785361</v>
+        <v>13.69588602588485</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.87623482532453</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.492609546313352</v>
       </c>
       <c r="N25">
-        <v>8.451045245699001</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.16730922904376</v>
+        <v>8.512361482448473</v>
       </c>
       <c r="Q25">
-        <v>15.62634345665193</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.24562766994283</v>
+      </c>
+      <c r="S25">
+        <v>15.17346983427744</v>
       </c>
     </row>
   </sheetData>
